--- a/subtask1/result.xlsx
+++ b/subtask1/result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\ETRI\subtask1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FA959-79F5-425B-9D87-FF11410F8C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6145C1-9AD4-480D-9EED-5BAF28DBAFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3135" windowWidth="28800" windowHeight="15345" xr2:uid="{3764E4B4-7AEC-4B68-9F6E-5D9DDFF6C732}"/>
+    <workbookView xWindow="255" yWindow="2475" windowWidth="28800" windowHeight="15345" xr2:uid="{3764E4B4-7AEC-4B68-9F6E-5D9DDFF6C732}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BB010EF5-F524-412A-AA29-F3B48F7015D4}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{AC60F6C4-95E9-46D9-9CA3-503586A5A32B}">
       <text>
         <r>
           <rPr>
@@ -40,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jongyoon:</t>
+          <t>admin:</t>
         </r>
         <r>
           <rPr>
@@ -50,13 +51,32 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-epoch 10
 batch 64
-44.7 MB</t>
+13.7 MB
+seed </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> X</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{C8F516E9-F3F9-4BC4-9EBA-E7A450ACAF17}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{ADE41570-991E-4C20-82A5-FC6747534AAE}">
       <text>
         <r>
           <rPr>
@@ -66,7 +86,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jongyoon:</t>
+          <t>admin:</t>
         </r>
         <r>
           <rPr>
@@ -76,13 +96,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-epoch 20
 batch 64
-44.7 MB</t>
+21.2 MB</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{A422D939-5D73-490D-BE3A-603797FB7C32}">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{8AD13823-3BE8-4975-8450-2374E68F5099}">
       <text>
         <r>
           <rPr>
@@ -92,7 +111,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jongyoon:</t>
+          <t>admin:</t>
         </r>
         <r>
           <rPr>
@@ -102,13 +121,22 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-epoch 10
 batch 64
-13.7 MB</t>
+24.8 MB</t>
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{3922B3E2-2418-4B94-A845-0533282F5CEF}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F6C8365C-4275-45EE-A87B-BD0678E39501}">
       <text>
         <r>
           <rPr>
@@ -118,7 +146,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jongyoon:</t>
+          <t>admin:</t>
         </r>
         <r>
           <rPr>
@@ -128,13 +156,61 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-epoch 20
 batch 64
-13.7 MB</t>
+44.7 MB
+6 5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바꾸기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전</t>
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{59CF3AF6-D943-4A3D-AD0C-C4EED2B18A0C}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{FF09E14D-4372-44BF-8426-2B029AED93E5}">
       <text>
         <r>
           <rPr>
@@ -144,7 +220,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jongyoon:</t>
+          <t>admin:</t>
         </r>
         <r>
           <rPr>
@@ -154,9 +230,73 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-epoch 10
 batch 64
-31.2 MB</t>
+13.7 MB
+seed </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{BDB36FD0-3B24-4DAB-B1FB-DE22BB4DA68D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+batch 64
+31.2 MB
+seed </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> X</t>
         </r>
       </text>
     </comment>
@@ -165,11 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
-  <si>
-    <t>ResNet18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>Top-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,11 +331,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mnet</t>
+    <t>DenseNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DenseNet</t>
+    <t>ResNet18</t>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mnet</t>
+  </si>
+  <si>
+    <t>MNet v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbox 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 6, bbox 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mnet 1 epoch 실험 결과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +410,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -253,14 +443,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,245 +990,1265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5266811A-C471-433C-B6C0-FBAB5C49F99D}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174EAED4-FE9A-4349-B50D-8FB96A8EABB6}">
+  <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="24">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="e">
+        <f t="shared" ref="G2:G17" si="0">AVERAGE(D2:F2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="18"/>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="18">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="18"/>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18"/>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="18">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="24">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.60123000000000004</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.44270999999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.57659000000000005</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54017666666666664</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.61395999999999995</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.41477999999999998</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.58645000000000003</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" ref="M10:M11" si="1">AVERAGE(J10:L10)</f>
+        <v>0.53839666666666675</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.61684000000000005</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.42136000000000001</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.59343000000000001</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" ref="Q10:Q11" si="2">AVERAGE(N10:P10)</f>
+        <v>0.54387666666666667</v>
+      </c>
+      <c r="R10">
+        <v>0.61848000000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.42093999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.60697999999999996</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" ref="U10:U11" si="3">AVERAGE(R10:T10)</f>
+        <v>0.54879999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="18"/>
+      <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.59055000000000002</v>
-      </c>
-      <c r="C2">
-        <v>0.44805</v>
-      </c>
-      <c r="D2">
-        <v>0.56262999999999996</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(B2:D2)</f>
-        <v>0.53374333333333335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.28993000000000002</v>
-      </c>
-      <c r="C3">
-        <v>0.36163000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.47832999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D11">
+        <v>0.26085000000000003</v>
+      </c>
+      <c r="E11">
+        <v>0.34695999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.47561999999999999</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.36114333333333332</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.18637999999999999</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.27675</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.43966</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.30092999999999998</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.18770999999999999</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.27756999999999998</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.41322999999999999</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.29283666666666663</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.19514000000000001</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.28791</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0.47704999999999997</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.32003333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D12">
+        <v>0.57947000000000004</v>
+      </c>
+      <c r="E12">
+        <v>0.43736999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52607999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="18"/>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.28397</v>
+      </c>
+      <c r="E13">
+        <v>0.35070000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.48287000000000002</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.37251333333333331</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="18">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.55893000000000004</v>
+      </c>
+      <c r="E14">
+        <v>0.43573000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.54783999999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51416666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="18"/>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.28071000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.35671000000000003</v>
+      </c>
+      <c r="F15">
+        <v>0.47617999999999999</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.37120000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="18">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.55728999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.43203000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.56345000000000001</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51758999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.34667999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.50055000000000005</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.37461000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="24">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.56838</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.44066</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.58809</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G33" si="4">AVERAGE(D18:F18)</f>
+        <v>0.53237666666666661</v>
+      </c>
+      <c r="I18" s="25">
         <v>1</v>
       </c>
-      <c r="E6" t="e">
-        <f>AVERAGE(B6:D6)</f>
+      <c r="J18" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0.60411000000000004</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0.58645000000000003</v>
+      </c>
+      <c r="N18" s="27">
+        <f t="shared" ref="N18:N19" si="5">AVERAGE(K18:M18)</f>
+        <v>0.54305333333333339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="18"/>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.25816</v>
+      </c>
+      <c r="E19">
+        <v>0.34525</v>
+      </c>
+      <c r="F19">
+        <v>0.50680999999999998</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="4"/>
+        <v>0.37007333333333331</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0.18804999999999999</v>
+      </c>
+      <c r="L19" s="26">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="M19" s="26">
+        <v>0.43309999999999998</v>
+      </c>
+      <c r="N19" s="26">
+        <f t="shared" si="5"/>
+        <v>0.30778333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="18">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.56345000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.43162</v>
+      </c>
+      <c r="F20">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5188233333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="18"/>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.28290999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.34148000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.48881999999999998</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="4"/>
+        <v>0.37107000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="18">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.54701999999999995</v>
+      </c>
+      <c r="E22">
+        <v>0.42915999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.56467999999999996</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.51361999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="18"/>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.27646999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.33896999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.49674000000000001</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="4"/>
+        <v>0.37072666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="18">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.54701999999999995</v>
+      </c>
+      <c r="E24">
+        <v>0.43614000000000003</v>
+      </c>
+      <c r="F24">
+        <v>0.57084000000000001</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="4"/>
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.29291</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.34748000000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.51085999999999998</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="4"/>
+        <v>0.38375000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0.55440999999999996</v>
-      </c>
-      <c r="C10">
-        <v>0.44024999999999997</v>
-      </c>
-      <c r="D10">
-        <v>0.52649000000000001</v>
-      </c>
-      <c r="E10">
-        <f>AVERAGE(B10:D10)</f>
-        <v>0.50705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0.25840000000000002</v>
-      </c>
-      <c r="C11">
-        <v>0.35446</v>
-      </c>
-      <c r="D11">
-        <v>0.44571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0.56345000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.44723000000000002</v>
-      </c>
-      <c r="D14">
-        <v>0.53676000000000001</v>
-      </c>
-      <c r="E14">
-        <f>AVERAGE(B14:D14)</f>
-        <v>0.51581333333333335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>0.28123999999999999</v>
-      </c>
-      <c r="C15">
-        <v>0.35560000000000003</v>
-      </c>
-      <c r="D15">
-        <v>0.48075000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0.57247999999999999</v>
-      </c>
-      <c r="C18">
-        <v>0.44763999999999998</v>
-      </c>
-      <c r="D18">
-        <v>0.57494999999999996</v>
-      </c>
-      <c r="E18">
-        <f>AVERAGE(B18:D18)</f>
-        <v>0.53168999999999988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>0.29364000000000001</v>
-      </c>
-      <c r="C19">
-        <v>0.37648999999999999</v>
-      </c>
-      <c r="D19">
-        <v>0.50719999999999998</v>
-      </c>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="18"/>
+      <c r="G27" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="18"/>
+      <c r="G28" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="18"/>
+      <c r="G29" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="18"/>
+      <c r="G30" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="18"/>
+      <c r="G31" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="18"/>
+      <c r="G32" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="J8:U8"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="I18:I19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0479684D-8CF4-4EEC-AA7C-D9DF04EC4315}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="24">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.59548000000000001</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.43368000000000001</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.56427000000000005</v>
+      </c>
+      <c r="G2" s="8">
+        <f>AVERAGE(D2:F2)</f>
+        <v>0.53114333333333341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="18"/>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.28960999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.33817000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.48662</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G17" si="0">AVERAGE(D3:F3)</f>
+        <v>0.37146666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="18">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.57864000000000004</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.53771333333333338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="18"/>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.30486000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.49284</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.3866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.57823000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.56467999999999996</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52840333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18"/>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.30145</v>
+      </c>
+      <c r="E7">
+        <v>0.36924000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.49779000000000001</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.3894933333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="18">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.57823000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.43942999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.53155333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.30192999999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.37169000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.49401</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="24">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.55440999999999996</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.44024999999999997</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.52649000000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.50705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="18"/>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.35446</v>
+      </c>
+      <c r="F11">
+        <v>0.44571</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.35285666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.56345000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.44723000000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.53676000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51581333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.28123999999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.48075000000000001</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.37253000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.57247999999999999</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.44763999999999998</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.57494999999999996</v>
+      </c>
+      <c r="G14" s="8">
+        <f>AVERAGE(D14:F14)</f>
+        <v>0.53168999999999988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="18"/>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.29364000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.37648999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.39244333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="18">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.58604000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.45749000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.56508999999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.53620666666666672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.32002000000000003</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.37390000000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.49836000000000003</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.39742666666666676</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>